--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_293.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_293.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32272-d218937-Reviews-Four_Points_by_Sheraton_Los_Angeles_Westside-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>585</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Four-Points-By-Sheraton-Los-Angeles-Westside.h5.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_293.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_293.xlsx
@@ -7937,7 +7937,7 @@
         <v>2887</v>
       </c>
       <c r="B2" t="n">
-        <v>148560</v>
+        <v>179997</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -8134,7 +8134,7 @@
         <v>2887</v>
       </c>
       <c r="B5" t="n">
-        <v>148561</v>
+        <v>179998</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -8203,7 +8203,7 @@
         <v>2887</v>
       </c>
       <c r="B6" t="n">
-        <v>148562</v>
+        <v>179999</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -8264,7 +8264,7 @@
         <v>2887</v>
       </c>
       <c r="B7" t="n">
-        <v>148563</v>
+        <v>180000</v>
       </c>
       <c r="C7" t="s">
         <v>93</v>
@@ -8329,7 +8329,7 @@
         <v>2887</v>
       </c>
       <c r="B8" t="n">
-        <v>148564</v>
+        <v>180001</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
@@ -8394,7 +8394,7 @@
         <v>2887</v>
       </c>
       <c r="B9" t="n">
-        <v>148565</v>
+        <v>180002</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -8459,7 +8459,7 @@
         <v>2887</v>
       </c>
       <c r="B10" t="n">
-        <v>148566</v>
+        <v>180003</v>
       </c>
       <c r="C10" t="s">
         <v>119</v>
@@ -8530,7 +8530,7 @@
         <v>2887</v>
       </c>
       <c r="B11" t="n">
-        <v>148567</v>
+        <v>180004</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
@@ -8595,7 +8595,7 @@
         <v>2887</v>
       </c>
       <c r="B12" t="n">
-        <v>148568</v>
+        <v>180005</v>
       </c>
       <c r="C12" t="s">
         <v>134</v>
@@ -8660,7 +8660,7 @@
         <v>2887</v>
       </c>
       <c r="B13" t="n">
-        <v>148569</v>
+        <v>180006</v>
       </c>
       <c r="C13" t="s">
         <v>143</v>
@@ -8727,7 +8727,7 @@
         <v>2887</v>
       </c>
       <c r="B14" t="n">
-        <v>148570</v>
+        <v>180007</v>
       </c>
       <c r="C14" t="s">
         <v>150</v>
@@ -8798,7 +8798,7 @@
         <v>2887</v>
       </c>
       <c r="B15" t="n">
-        <v>148571</v>
+        <v>180008</v>
       </c>
       <c r="C15" t="s">
         <v>157</v>
@@ -9062,7 +9062,7 @@
         <v>2887</v>
       </c>
       <c r="B19" t="n">
-        <v>148572</v>
+        <v>180009</v>
       </c>
       <c r="C19" t="s">
         <v>189</v>
@@ -9127,7 +9127,7 @@
         <v>2887</v>
       </c>
       <c r="B20" t="n">
-        <v>148573</v>
+        <v>180010</v>
       </c>
       <c r="C20" t="s">
         <v>198</v>
@@ -9198,7 +9198,7 @@
         <v>2887</v>
       </c>
       <c r="B21" t="n">
-        <v>148574</v>
+        <v>180011</v>
       </c>
       <c r="C21" t="s">
         <v>208</v>
@@ -9474,7 +9474,7 @@
         <v>2887</v>
       </c>
       <c r="B25" t="n">
-        <v>148575</v>
+        <v>180012</v>
       </c>
       <c r="C25" t="s">
         <v>244</v>
@@ -9539,7 +9539,7 @@
         <v>2887</v>
       </c>
       <c r="B26" t="n">
-        <v>148576</v>
+        <v>180013</v>
       </c>
       <c r="C26" t="s">
         <v>251</v>
@@ -9604,7 +9604,7 @@
         <v>2887</v>
       </c>
       <c r="B27" t="n">
-        <v>148577</v>
+        <v>180014</v>
       </c>
       <c r="C27" t="s">
         <v>261</v>
@@ -9669,7 +9669,7 @@
         <v>2887</v>
       </c>
       <c r="B28" t="n">
-        <v>148578</v>
+        <v>180015</v>
       </c>
       <c r="C28" t="s">
         <v>267</v>
@@ -9740,7 +9740,7 @@
         <v>2887</v>
       </c>
       <c r="B29" t="n">
-        <v>148579</v>
+        <v>180016</v>
       </c>
       <c r="C29" t="s">
         <v>277</v>
@@ -9805,7 +9805,7 @@
         <v>2887</v>
       </c>
       <c r="B30" t="n">
-        <v>148580</v>
+        <v>180017</v>
       </c>
       <c r="C30" t="s">
         <v>287</v>
@@ -9870,7 +9870,7 @@
         <v>2887</v>
       </c>
       <c r="B31" t="n">
-        <v>148581</v>
+        <v>180018</v>
       </c>
       <c r="C31" t="s">
         <v>295</v>
@@ -10008,7 +10008,7 @@
         <v>2887</v>
       </c>
       <c r="B33" t="n">
-        <v>148582</v>
+        <v>180019</v>
       </c>
       <c r="C33" t="s">
         <v>311</v>
@@ -10148,7 +10148,7 @@
         <v>2887</v>
       </c>
       <c r="B35" t="n">
-        <v>148583</v>
+        <v>180020</v>
       </c>
       <c r="C35" t="s">
         <v>328</v>
@@ -10219,7 +10219,7 @@
         <v>2887</v>
       </c>
       <c r="B36" t="n">
-        <v>148584</v>
+        <v>180021</v>
       </c>
       <c r="C36" t="s">
         <v>335</v>
@@ -10290,7 +10290,7 @@
         <v>2887</v>
       </c>
       <c r="B37" t="n">
-        <v>148585</v>
+        <v>180022</v>
       </c>
       <c r="C37" t="s">
         <v>342</v>
@@ -10497,7 +10497,7 @@
         <v>2887</v>
       </c>
       <c r="B40" t="n">
-        <v>148586</v>
+        <v>180023</v>
       </c>
       <c r="C40" t="s">
         <v>363</v>
@@ -10562,7 +10562,7 @@
         <v>2887</v>
       </c>
       <c r="B41" t="n">
-        <v>148587</v>
+        <v>180024</v>
       </c>
       <c r="C41" t="s">
         <v>370</v>
@@ -10692,7 +10692,7 @@
         <v>2887</v>
       </c>
       <c r="B43" t="n">
-        <v>148588</v>
+        <v>180025</v>
       </c>
       <c r="C43" t="s">
         <v>385</v>
@@ -10763,7 +10763,7 @@
         <v>2887</v>
       </c>
       <c r="B44" t="n">
-        <v>148589</v>
+        <v>180026</v>
       </c>
       <c r="C44" t="s">
         <v>393</v>
@@ -10828,7 +10828,7 @@
         <v>2887</v>
       </c>
       <c r="B45" t="n">
-        <v>148590</v>
+        <v>180027</v>
       </c>
       <c r="C45" t="s">
         <v>400</v>
@@ -10893,7 +10893,7 @@
         <v>2887</v>
       </c>
       <c r="B46" t="n">
-        <v>148591</v>
+        <v>180028</v>
       </c>
       <c r="C46" t="s">
         <v>406</v>
@@ -10958,7 +10958,7 @@
         <v>2887</v>
       </c>
       <c r="B47" t="n">
-        <v>148592</v>
+        <v>180029</v>
       </c>
       <c r="C47" t="s">
         <v>413</v>
@@ -11090,7 +11090,7 @@
         <v>2887</v>
       </c>
       <c r="B49" t="n">
-        <v>148593</v>
+        <v>180030</v>
       </c>
       <c r="C49" t="s">
         <v>427</v>
@@ -11151,7 +11151,7 @@
         <v>2887</v>
       </c>
       <c r="B50" t="n">
-        <v>148594</v>
+        <v>180031</v>
       </c>
       <c r="C50" t="s">
         <v>433</v>
@@ -11222,7 +11222,7 @@
         <v>2887</v>
       </c>
       <c r="B51" t="n">
-        <v>148595</v>
+        <v>180032</v>
       </c>
       <c r="C51" t="s">
         <v>440</v>
@@ -11293,7 +11293,7 @@
         <v>2887</v>
       </c>
       <c r="B52" t="n">
-        <v>148596</v>
+        <v>180033</v>
       </c>
       <c r="C52" t="s">
         <v>447</v>
@@ -11362,7 +11362,7 @@
         <v>2887</v>
       </c>
       <c r="B53" t="n">
-        <v>148597</v>
+        <v>180034</v>
       </c>
       <c r="C53" t="s">
         <v>454</v>
@@ -11496,7 +11496,7 @@
         <v>2887</v>
       </c>
       <c r="B55" t="n">
-        <v>148598</v>
+        <v>180035</v>
       </c>
       <c r="C55" t="s">
         <v>468</v>
@@ -11697,7 +11697,7 @@
         <v>2887</v>
       </c>
       <c r="B58" t="n">
-        <v>148599</v>
+        <v>180036</v>
       </c>
       <c r="C58" t="s">
         <v>491</v>
@@ -11754,7 +11754,7 @@
         <v>2887</v>
       </c>
       <c r="B59" t="n">
-        <v>148600</v>
+        <v>180037</v>
       </c>
       <c r="C59" t="s">
         <v>497</v>
@@ -11819,7 +11819,7 @@
         <v>2887</v>
       </c>
       <c r="B60" t="n">
-        <v>148601</v>
+        <v>180038</v>
       </c>
       <c r="C60" t="s">
         <v>504</v>
@@ -11884,7 +11884,7 @@
         <v>2887</v>
       </c>
       <c r="B61" t="n">
-        <v>148602</v>
+        <v>180039</v>
       </c>
       <c r="C61" t="s">
         <v>512</v>
@@ -11951,7 +11951,7 @@
         <v>2887</v>
       </c>
       <c r="B62" t="n">
-        <v>148603</v>
+        <v>180040</v>
       </c>
       <c r="C62" t="s">
         <v>520</v>
@@ -12073,7 +12073,7 @@
         <v>2887</v>
       </c>
       <c r="B64" t="n">
-        <v>148604</v>
+        <v>180041</v>
       </c>
       <c r="C64" t="s">
         <v>533</v>
@@ -12142,7 +12142,7 @@
         <v>2887</v>
       </c>
       <c r="B65" t="n">
-        <v>148605</v>
+        <v>180042</v>
       </c>
       <c r="C65" t="s">
         <v>542</v>
@@ -12207,7 +12207,7 @@
         <v>2887</v>
       </c>
       <c r="B66" t="n">
-        <v>148606</v>
+        <v>180043</v>
       </c>
       <c r="C66" t="s">
         <v>549</v>
@@ -12272,7 +12272,7 @@
         <v>2887</v>
       </c>
       <c r="B67" t="n">
-        <v>148607</v>
+        <v>180044</v>
       </c>
       <c r="C67" t="s">
         <v>558</v>
@@ -12477,7 +12477,7 @@
         <v>2887</v>
       </c>
       <c r="B70" t="n">
-        <v>148608</v>
+        <v>180045</v>
       </c>
       <c r="C70" t="s">
         <v>583</v>
@@ -12544,7 +12544,7 @@
         <v>2887</v>
       </c>
       <c r="B71" t="n">
-        <v>148609</v>
+        <v>180046</v>
       </c>
       <c r="C71" t="s">
         <v>590</v>
@@ -12684,7 +12684,7 @@
         <v>2887</v>
       </c>
       <c r="B73" t="n">
-        <v>148610</v>
+        <v>180047</v>
       </c>
       <c r="C73" t="s">
         <v>608</v>
@@ -12753,7 +12753,7 @@
         <v>2887</v>
       </c>
       <c r="B74" t="n">
-        <v>148611</v>
+        <v>180048</v>
       </c>
       <c r="C74" t="s">
         <v>615</v>
@@ -12824,7 +12824,7 @@
         <v>2887</v>
       </c>
       <c r="B75" t="n">
-        <v>148612</v>
+        <v>180049</v>
       </c>
       <c r="C75" t="s">
         <v>624</v>
@@ -12889,7 +12889,7 @@
         <v>2887</v>
       </c>
       <c r="B76" t="n">
-        <v>148613</v>
+        <v>180050</v>
       </c>
       <c r="C76" t="s">
         <v>631</v>
@@ -12958,7 +12958,7 @@
         <v>2887</v>
       </c>
       <c r="B77" t="n">
-        <v>148614</v>
+        <v>180051</v>
       </c>
       <c r="C77" t="s">
         <v>640</v>
@@ -13161,7 +13161,7 @@
         <v>2887</v>
       </c>
       <c r="B80" t="n">
-        <v>148615</v>
+        <v>180052</v>
       </c>
       <c r="C80" t="s">
         <v>666</v>
@@ -13226,7 +13226,7 @@
         <v>2887</v>
       </c>
       <c r="B81" t="n">
-        <v>148616</v>
+        <v>180053</v>
       </c>
       <c r="C81" t="s">
         <v>674</v>
@@ -13368,7 +13368,7 @@
         <v>2887</v>
       </c>
       <c r="B83" t="n">
-        <v>148617</v>
+        <v>180054</v>
       </c>
       <c r="C83" t="s">
         <v>689</v>
@@ -13439,7 +13439,7 @@
         <v>2887</v>
       </c>
       <c r="B84" t="n">
-        <v>148618</v>
+        <v>180055</v>
       </c>
       <c r="C84" t="s">
         <v>698</v>
@@ -13575,7 +13575,7 @@
         <v>2887</v>
       </c>
       <c r="B86" t="n">
-        <v>148619</v>
+        <v>180056</v>
       </c>
       <c r="C86" t="s">
         <v>717</v>
@@ -13644,7 +13644,7 @@
         <v>2887</v>
       </c>
       <c r="B87" t="n">
-        <v>148620</v>
+        <v>180057</v>
       </c>
       <c r="C87" t="s">
         <v>725</v>
@@ -13784,7 +13784,7 @@
         <v>2887</v>
       </c>
       <c r="B89" t="n">
-        <v>148621</v>
+        <v>180058</v>
       </c>
       <c r="C89" t="s">
         <v>742</v>
@@ -13924,7 +13924,7 @@
         <v>2887</v>
       </c>
       <c r="B91" t="n">
-        <v>148622</v>
+        <v>180059</v>
       </c>
       <c r="C91" t="s">
         <v>759</v>
@@ -13989,7 +13989,7 @@
         <v>2887</v>
       </c>
       <c r="B92" t="n">
-        <v>148623</v>
+        <v>180060</v>
       </c>
       <c r="C92" t="s">
         <v>766</v>
@@ -14129,7 +14129,7 @@
         <v>2887</v>
       </c>
       <c r="B94" t="n">
-        <v>148624</v>
+        <v>180061</v>
       </c>
       <c r="C94" t="s">
         <v>783</v>
@@ -14198,7 +14198,7 @@
         <v>2887</v>
       </c>
       <c r="B95" t="n">
-        <v>148625</v>
+        <v>180062</v>
       </c>
       <c r="C95" t="s">
         <v>790</v>
@@ -14263,7 +14263,7 @@
         <v>2887</v>
       </c>
       <c r="B96" t="n">
-        <v>148626</v>
+        <v>180063</v>
       </c>
       <c r="C96" t="s">
         <v>797</v>
@@ -14399,7 +14399,7 @@
         <v>2887</v>
       </c>
       <c r="B98" t="n">
-        <v>148627</v>
+        <v>180064</v>
       </c>
       <c r="C98" t="s">
         <v>811</v>
@@ -14529,7 +14529,7 @@
         <v>2887</v>
       </c>
       <c r="B100" t="n">
-        <v>148628</v>
+        <v>180065</v>
       </c>
       <c r="C100" t="s">
         <v>827</v>
@@ -14598,7 +14598,7 @@
         <v>2887</v>
       </c>
       <c r="B101" t="n">
-        <v>148629</v>
+        <v>180066</v>
       </c>
       <c r="C101" t="s">
         <v>834</v>
@@ -14669,7 +14669,7 @@
         <v>2887</v>
       </c>
       <c r="B102" t="n">
-        <v>148630</v>
+        <v>180067</v>
       </c>
       <c r="C102" t="s">
         <v>841</v>
@@ -14734,7 +14734,7 @@
         <v>2887</v>
       </c>
       <c r="B103" t="n">
-        <v>148631</v>
+        <v>180068</v>
       </c>
       <c r="C103" t="s">
         <v>848</v>
@@ -14803,7 +14803,7 @@
         <v>2887</v>
       </c>
       <c r="B104" t="n">
-        <v>148632</v>
+        <v>180069</v>
       </c>
       <c r="C104" t="s">
         <v>855</v>
@@ -14933,7 +14933,7 @@
         <v>2887</v>
       </c>
       <c r="B106" t="n">
-        <v>148633</v>
+        <v>180070</v>
       </c>
       <c r="C106" t="s">
         <v>870</v>
@@ -14998,7 +14998,7 @@
         <v>2887</v>
       </c>
       <c r="B107" t="n">
-        <v>148634</v>
+        <v>180071</v>
       </c>
       <c r="C107" t="s">
         <v>877</v>
@@ -15069,7 +15069,7 @@
         <v>2887</v>
       </c>
       <c r="B108" t="n">
-        <v>148635</v>
+        <v>180072</v>
       </c>
       <c r="C108" t="s">
         <v>886</v>
@@ -15205,7 +15205,7 @@
         <v>2887</v>
       </c>
       <c r="B110" t="n">
-        <v>148636</v>
+        <v>180073</v>
       </c>
       <c r="C110" t="s">
         <v>900</v>
@@ -15276,7 +15276,7 @@
         <v>2887</v>
       </c>
       <c r="B111" t="n">
-        <v>148637</v>
+        <v>180074</v>
       </c>
       <c r="C111" t="s">
         <v>909</v>
@@ -15337,7 +15337,7 @@
         <v>2887</v>
       </c>
       <c r="B112" t="n">
-        <v>148638</v>
+        <v>180075</v>
       </c>
       <c r="C112" t="s">
         <v>916</v>
@@ -15408,7 +15408,7 @@
         <v>2887</v>
       </c>
       <c r="B113" t="n">
-        <v>148639</v>
+        <v>180076</v>
       </c>
       <c r="C113" t="s">
         <v>926</v>
@@ -15477,7 +15477,7 @@
         <v>2887</v>
       </c>
       <c r="B114" t="n">
-        <v>148640</v>
+        <v>180077</v>
       </c>
       <c r="C114" t="s">
         <v>936</v>
@@ -15546,7 +15546,7 @@
         <v>2887</v>
       </c>
       <c r="B115" t="n">
-        <v>148641</v>
+        <v>180078</v>
       </c>
       <c r="C115" t="s">
         <v>946</v>
@@ -15607,7 +15607,7 @@
         <v>2887</v>
       </c>
       <c r="B116" t="n">
-        <v>148642</v>
+        <v>180079</v>
       </c>
       <c r="C116" t="s">
         <v>953</v>
@@ -15678,7 +15678,7 @@
         <v>2887</v>
       </c>
       <c r="B117" t="n">
-        <v>148643</v>
+        <v>180080</v>
       </c>
       <c r="C117" t="s">
         <v>962</v>
@@ -15747,7 +15747,7 @@
         <v>2887</v>
       </c>
       <c r="B118" t="n">
-        <v>148644</v>
+        <v>180081</v>
       </c>
       <c r="C118" t="s">
         <v>968</v>
@@ -15818,7 +15818,7 @@
         <v>2887</v>
       </c>
       <c r="B119" t="n">
-        <v>148645</v>
+        <v>180082</v>
       </c>
       <c r="C119" t="s">
         <v>978</v>
@@ -15940,7 +15940,7 @@
         <v>2887</v>
       </c>
       <c r="B121" t="n">
-        <v>148646</v>
+        <v>180083</v>
       </c>
       <c r="C121" t="s">
         <v>990</v>
@@ -16005,7 +16005,7 @@
         <v>2887</v>
       </c>
       <c r="B122" t="n">
-        <v>148647</v>
+        <v>180084</v>
       </c>
       <c r="C122" t="s">
         <v>996</v>
@@ -16212,7 +16212,7 @@
         <v>2887</v>
       </c>
       <c r="B125" t="n">
-        <v>148648</v>
+        <v>180085</v>
       </c>
       <c r="C125" t="s">
         <v>1022</v>
@@ -16283,7 +16283,7 @@
         <v>2887</v>
       </c>
       <c r="B126" t="n">
-        <v>148649</v>
+        <v>180086</v>
       </c>
       <c r="C126" t="s">
         <v>1031</v>
@@ -16421,7 +16421,7 @@
         <v>2887</v>
       </c>
       <c r="B128" t="n">
-        <v>148650</v>
+        <v>180087</v>
       </c>
       <c r="C128" t="s">
         <v>1045</v>
@@ -16492,7 +16492,7 @@
         <v>2887</v>
       </c>
       <c r="B129" t="n">
-        <v>148651</v>
+        <v>180088</v>
       </c>
       <c r="C129" t="s">
         <v>1055</v>
@@ -16563,7 +16563,7 @@
         <v>2887</v>
       </c>
       <c r="B130" t="n">
-        <v>148652</v>
+        <v>180089</v>
       </c>
       <c r="C130" t="s">
         <v>1063</v>
@@ -16634,7 +16634,7 @@
         <v>2887</v>
       </c>
       <c r="B131" t="n">
-        <v>148653</v>
+        <v>180090</v>
       </c>
       <c r="C131" t="s">
         <v>1073</v>
@@ -16774,7 +16774,7 @@
         <v>2887</v>
       </c>
       <c r="B133" t="n">
-        <v>148654</v>
+        <v>180091</v>
       </c>
       <c r="C133" t="s">
         <v>1091</v>
@@ -16910,7 +16910,7 @@
         <v>2887</v>
       </c>
       <c r="B135" t="n">
-        <v>148655</v>
+        <v>180092</v>
       </c>
       <c r="C135" t="s">
         <v>1109</v>
@@ -17046,7 +17046,7 @@
         <v>2887</v>
       </c>
       <c r="B137" t="n">
-        <v>148656</v>
+        <v>180093</v>
       </c>
       <c r="C137" t="s">
         <v>1124</v>
@@ -17115,7 +17115,7 @@
         <v>2887</v>
       </c>
       <c r="B138" t="n">
-        <v>148657</v>
+        <v>180094</v>
       </c>
       <c r="C138" t="s">
         <v>1134</v>
@@ -17251,7 +17251,7 @@
         <v>2887</v>
       </c>
       <c r="B140" t="n">
-        <v>148658</v>
+        <v>180095</v>
       </c>
       <c r="C140" t="s">
         <v>1149</v>
@@ -17326,7 +17326,7 @@
         <v>2887</v>
       </c>
       <c r="B141" t="n">
-        <v>148659</v>
+        <v>180096</v>
       </c>
       <c r="C141" t="s">
         <v>1157</v>
@@ -17401,7 +17401,7 @@
         <v>2887</v>
       </c>
       <c r="B142" t="n">
-        <v>148660</v>
+        <v>180097</v>
       </c>
       <c r="C142" t="s">
         <v>1164</v>
@@ -17476,7 +17476,7 @@
         <v>2887</v>
       </c>
       <c r="B143" t="n">
-        <v>148661</v>
+        <v>180098</v>
       </c>
       <c r="C143" t="s">
         <v>1173</v>
@@ -17551,7 +17551,7 @@
         <v>2887</v>
       </c>
       <c r="B144" t="n">
-        <v>148662</v>
+        <v>180099</v>
       </c>
       <c r="C144" t="s">
         <v>1180</v>
@@ -17626,7 +17626,7 @@
         <v>2887</v>
       </c>
       <c r="B145" t="n">
-        <v>148663</v>
+        <v>180100</v>
       </c>
       <c r="C145" t="s">
         <v>1187</v>
@@ -17701,7 +17701,7 @@
         <v>2887</v>
       </c>
       <c r="B146" t="n">
-        <v>148664</v>
+        <v>180101</v>
       </c>
       <c r="C146" t="s">
         <v>1196</v>
@@ -17766,7 +17766,7 @@
         <v>2887</v>
       </c>
       <c r="B147" t="n">
-        <v>148665</v>
+        <v>180102</v>
       </c>
       <c r="C147" t="s">
         <v>1205</v>
@@ -17841,7 +17841,7 @@
         <v>2887</v>
       </c>
       <c r="B148" t="n">
-        <v>148666</v>
+        <v>180103</v>
       </c>
       <c r="C148" t="s">
         <v>1213</v>
@@ -17906,7 +17906,7 @@
         <v>2887</v>
       </c>
       <c r="B149" t="n">
-        <v>148667</v>
+        <v>180104</v>
       </c>
       <c r="C149" t="s">
         <v>1219</v>
@@ -17981,7 +17981,7 @@
         <v>2887</v>
       </c>
       <c r="B150" t="n">
-        <v>148668</v>
+        <v>180105</v>
       </c>
       <c r="C150" t="s">
         <v>1227</v>
@@ -18056,7 +18056,7 @@
         <v>2887</v>
       </c>
       <c r="B151" t="n">
-        <v>148669</v>
+        <v>180106</v>
       </c>
       <c r="C151" t="s">
         <v>1234</v>
@@ -18121,7 +18121,7 @@
         <v>2887</v>
       </c>
       <c r="B152" t="n">
-        <v>148670</v>
+        <v>180107</v>
       </c>
       <c r="C152" t="s">
         <v>1241</v>
@@ -18196,7 +18196,7 @@
         <v>2887</v>
       </c>
       <c r="B153" t="n">
-        <v>148671</v>
+        <v>180108</v>
       </c>
       <c r="C153" t="s">
         <v>1250</v>
@@ -18261,7 +18261,7 @@
         <v>2887</v>
       </c>
       <c r="B154" t="n">
-        <v>148672</v>
+        <v>180109</v>
       </c>
       <c r="C154" t="s">
         <v>1257</v>
@@ -18336,7 +18336,7 @@
         <v>2887</v>
       </c>
       <c r="B155" t="n">
-        <v>148673</v>
+        <v>180110</v>
       </c>
       <c r="C155" t="s">
         <v>1264</v>
@@ -18411,7 +18411,7 @@
         <v>2887</v>
       </c>
       <c r="B156" t="n">
-        <v>148674</v>
+        <v>180111</v>
       </c>
       <c r="C156" t="s">
         <v>1274</v>
@@ -18486,7 +18486,7 @@
         <v>2887</v>
       </c>
       <c r="B157" t="n">
-        <v>148675</v>
+        <v>180112</v>
       </c>
       <c r="C157" t="s">
         <v>1281</v>
@@ -18561,7 +18561,7 @@
         <v>2887</v>
       </c>
       <c r="B158" t="n">
-        <v>148676</v>
+        <v>180113</v>
       </c>
       <c r="C158" t="s">
         <v>1290</v>
@@ -18636,7 +18636,7 @@
         <v>2887</v>
       </c>
       <c r="B159" t="n">
-        <v>148677</v>
+        <v>180114</v>
       </c>
       <c r="C159" t="s">
         <v>1299</v>
@@ -18711,7 +18711,7 @@
         <v>2887</v>
       </c>
       <c r="B160" t="n">
-        <v>148678</v>
+        <v>180115</v>
       </c>
       <c r="C160" t="s">
         <v>1306</v>
@@ -18786,7 +18786,7 @@
         <v>2887</v>
       </c>
       <c r="B161" t="n">
-        <v>148679</v>
+        <v>180116</v>
       </c>
       <c r="C161" t="s">
         <v>1316</v>
@@ -18861,7 +18861,7 @@
         <v>2887</v>
       </c>
       <c r="B162" t="n">
-        <v>148680</v>
+        <v>180117</v>
       </c>
       <c r="C162" t="s">
         <v>1325</v>
@@ -18936,7 +18936,7 @@
         <v>2887</v>
       </c>
       <c r="B163" t="n">
-        <v>148681</v>
+        <v>180118</v>
       </c>
       <c r="C163" t="s">
         <v>1334</v>
@@ -19011,7 +19011,7 @@
         <v>2887</v>
       </c>
       <c r="B164" t="n">
-        <v>148682</v>
+        <v>180119</v>
       </c>
       <c r="C164" t="s">
         <v>1340</v>
@@ -19082,7 +19082,7 @@
         <v>2887</v>
       </c>
       <c r="B165" t="n">
-        <v>148683</v>
+        <v>180120</v>
       </c>
       <c r="C165" t="s">
         <v>1347</v>
@@ -19157,7 +19157,7 @@
         <v>2887</v>
       </c>
       <c r="B166" t="n">
-        <v>148684</v>
+        <v>180121</v>
       </c>
       <c r="C166" t="s">
         <v>1354</v>
@@ -19457,7 +19457,7 @@
         <v>2887</v>
       </c>
       <c r="B170" t="n">
-        <v>148685</v>
+        <v>180122</v>
       </c>
       <c r="C170" t="s">
         <v>1384</v>
@@ -19597,7 +19597,7 @@
         <v>2887</v>
       </c>
       <c r="B172" t="n">
-        <v>148686</v>
+        <v>180123</v>
       </c>
       <c r="C172" t="s">
         <v>1403</v>
@@ -19672,7 +19672,7 @@
         <v>2887</v>
       </c>
       <c r="B173" t="n">
-        <v>148687</v>
+        <v>180124</v>
       </c>
       <c r="C173" t="s">
         <v>1413</v>
@@ -19743,7 +19743,7 @@
         <v>2887</v>
       </c>
       <c r="B174" t="n">
-        <v>148688</v>
+        <v>180125</v>
       </c>
       <c r="C174" t="s">
         <v>1422</v>
@@ -19810,7 +19810,7 @@
         <v>2887</v>
       </c>
       <c r="B175" t="n">
-        <v>148689</v>
+        <v>180126</v>
       </c>
       <c r="C175" t="s">
         <v>1429</v>
@@ -19877,7 +19877,7 @@
         <v>2887</v>
       </c>
       <c r="B176" t="n">
-        <v>148690</v>
+        <v>180127</v>
       </c>
       <c r="C176" t="s">
         <v>1435</v>
@@ -19948,7 +19948,7 @@
         <v>2887</v>
       </c>
       <c r="B177" t="n">
-        <v>148691</v>
+        <v>180128</v>
       </c>
       <c r="C177" t="s">
         <v>1444</v>
@@ -20023,7 +20023,7 @@
         <v>2887</v>
       </c>
       <c r="B178" t="n">
-        <v>148692</v>
+        <v>180129</v>
       </c>
       <c r="C178" t="s">
         <v>1453</v>
@@ -20098,7 +20098,7 @@
         <v>2887</v>
       </c>
       <c r="B179" t="n">
-        <v>148693</v>
+        <v>180130</v>
       </c>
       <c r="C179" t="s">
         <v>1463</v>
@@ -20173,7 +20173,7 @@
         <v>2887</v>
       </c>
       <c r="B180" t="n">
-        <v>148694</v>
+        <v>180131</v>
       </c>
       <c r="C180" t="s">
         <v>1473</v>
@@ -20244,7 +20244,7 @@
         <v>2887</v>
       </c>
       <c r="B181" t="n">
-        <v>148695</v>
+        <v>180132</v>
       </c>
       <c r="C181" t="s">
         <v>1482</v>
@@ -20319,7 +20319,7 @@
         <v>2887</v>
       </c>
       <c r="B182" t="n">
-        <v>148696</v>
+        <v>180133</v>
       </c>
       <c r="C182" t="s">
         <v>1492</v>
@@ -20390,7 +20390,7 @@
         <v>2887</v>
       </c>
       <c r="B183" t="n">
-        <v>148697</v>
+        <v>180134</v>
       </c>
       <c r="C183" t="s">
         <v>1501</v>
@@ -20540,7 +20540,7 @@
         <v>2887</v>
       </c>
       <c r="B185" t="n">
-        <v>148698</v>
+        <v>180135</v>
       </c>
       <c r="C185" t="s">
         <v>1518</v>
@@ -20615,7 +20615,7 @@
         <v>2887</v>
       </c>
       <c r="B186" t="n">
-        <v>148699</v>
+        <v>180136</v>
       </c>
       <c r="C186" t="s">
         <v>1527</v>
@@ -20690,7 +20690,7 @@
         <v>2887</v>
       </c>
       <c r="B187" t="n">
-        <v>148700</v>
+        <v>180137</v>
       </c>
       <c r="C187" t="s">
         <v>1534</v>
@@ -20765,7 +20765,7 @@
         <v>2887</v>
       </c>
       <c r="B188" t="n">
-        <v>148701</v>
+        <v>180138</v>
       </c>
       <c r="C188" t="s">
         <v>1542</v>
@@ -20840,7 +20840,7 @@
         <v>2887</v>
       </c>
       <c r="B189" t="n">
-        <v>148702</v>
+        <v>180139</v>
       </c>
       <c r="C189" t="s">
         <v>1551</v>
@@ -21061,7 +21061,7 @@
         <v>2887</v>
       </c>
       <c r="B192" t="n">
-        <v>148703</v>
+        <v>180140</v>
       </c>
       <c r="C192" t="s">
         <v>1577</v>
@@ -21136,7 +21136,7 @@
         <v>2887</v>
       </c>
       <c r="B193" t="n">
-        <v>148704</v>
+        <v>180141</v>
       </c>
       <c r="C193" t="s">
         <v>1586</v>
@@ -21201,7 +21201,7 @@
         <v>2887</v>
       </c>
       <c r="B194" t="n">
-        <v>148705</v>
+        <v>180142</v>
       </c>
       <c r="C194" t="s">
         <v>1595</v>
@@ -21266,7 +21266,7 @@
         <v>2887</v>
       </c>
       <c r="B195" t="n">
-        <v>148706</v>
+        <v>180143</v>
       </c>
       <c r="C195" t="s">
         <v>1605</v>
@@ -21414,7 +21414,7 @@
         <v>2887</v>
       </c>
       <c r="B197" t="n">
-        <v>148707</v>
+        <v>180144</v>
       </c>
       <c r="C197" t="s">
         <v>1618</v>
@@ -21479,7 +21479,7 @@
         <v>2887</v>
       </c>
       <c r="B198" t="n">
-        <v>148708</v>
+        <v>180145</v>
       </c>
       <c r="C198" t="s">
         <v>1628</v>
@@ -21629,7 +21629,7 @@
         <v>2887</v>
       </c>
       <c r="B200" t="n">
-        <v>148709</v>
+        <v>180146</v>
       </c>
       <c r="C200" t="s">
         <v>1645</v>
@@ -21696,7 +21696,7 @@
         <v>2887</v>
       </c>
       <c r="B201" t="n">
-        <v>148710</v>
+        <v>180147</v>
       </c>
       <c r="C201" t="s">
         <v>1652</v>
@@ -21767,7 +21767,7 @@
         <v>2887</v>
       </c>
       <c r="B202" t="n">
-        <v>148711</v>
+        <v>180148</v>
       </c>
       <c r="C202" t="s">
         <v>1658</v>
@@ -21842,7 +21842,7 @@
         <v>2887</v>
       </c>
       <c r="B203" t="n">
-        <v>148712</v>
+        <v>180149</v>
       </c>
       <c r="C203" t="s">
         <v>1668</v>
@@ -21917,7 +21917,7 @@
         <v>2887</v>
       </c>
       <c r="B204" t="n">
-        <v>148713</v>
+        <v>180150</v>
       </c>
       <c r="C204" t="s">
         <v>1678</v>
@@ -21992,7 +21992,7 @@
         <v>2887</v>
       </c>
       <c r="B205" t="n">
-        <v>148714</v>
+        <v>180151</v>
       </c>
       <c r="C205" t="s">
         <v>1685</v>
@@ -22136,7 +22136,7 @@
         <v>2887</v>
       </c>
       <c r="B207" t="n">
-        <v>148715</v>
+        <v>180152</v>
       </c>
       <c r="C207" t="s">
         <v>1704</v>
@@ -22201,7 +22201,7 @@
         <v>2887</v>
       </c>
       <c r="B208" t="n">
-        <v>148716</v>
+        <v>180153</v>
       </c>
       <c r="C208" t="s">
         <v>1713</v>
@@ -22276,7 +22276,7 @@
         <v>2887</v>
       </c>
       <c r="B209" t="n">
-        <v>148717</v>
+        <v>180154</v>
       </c>
       <c r="C209" t="s">
         <v>1720</v>
@@ -22347,7 +22347,7 @@
         <v>2887</v>
       </c>
       <c r="B210" t="n">
-        <v>148718</v>
+        <v>180155</v>
       </c>
       <c r="C210" t="s">
         <v>1727</v>
@@ -22422,7 +22422,7 @@
         <v>2887</v>
       </c>
       <c r="B211" t="n">
-        <v>148719</v>
+        <v>180156</v>
       </c>
       <c r="C211" t="s">
         <v>1736</v>
@@ -22497,7 +22497,7 @@
         <v>2887</v>
       </c>
       <c r="B212" t="n">
-        <v>148720</v>
+        <v>180157</v>
       </c>
       <c r="C212" t="s">
         <v>1745</v>
@@ -22572,7 +22572,7 @@
         <v>2887</v>
       </c>
       <c r="B213" t="n">
-        <v>148721</v>
+        <v>180158</v>
       </c>
       <c r="C213" t="s">
         <v>1754</v>
@@ -22647,7 +22647,7 @@
         <v>2887</v>
       </c>
       <c r="B214" t="n">
-        <v>148722</v>
+        <v>180159</v>
       </c>
       <c r="C214" t="s">
         <v>1763</v>
@@ -22722,7 +22722,7 @@
         <v>2887</v>
       </c>
       <c r="B215" t="n">
-        <v>148723</v>
+        <v>180160</v>
       </c>
       <c r="C215" t="s">
         <v>1771</v>
@@ -22797,7 +22797,7 @@
         <v>2887</v>
       </c>
       <c r="B216" t="n">
-        <v>148724</v>
+        <v>180161</v>
       </c>
       <c r="C216" t="s">
         <v>1780</v>
@@ -22872,7 +22872,7 @@
         <v>2887</v>
       </c>
       <c r="B217" t="n">
-        <v>148725</v>
+        <v>180162</v>
       </c>
       <c r="C217" t="s">
         <v>1787</v>
@@ -22947,7 +22947,7 @@
         <v>2887</v>
       </c>
       <c r="B218" t="n">
-        <v>148726</v>
+        <v>180163</v>
       </c>
       <c r="C218" t="s">
         <v>1797</v>
@@ -23022,7 +23022,7 @@
         <v>2887</v>
       </c>
       <c r="B219" t="n">
-        <v>148727</v>
+        <v>180164</v>
       </c>
       <c r="C219" t="s">
         <v>1806</v>
@@ -23097,7 +23097,7 @@
         <v>2887</v>
       </c>
       <c r="B220" t="n">
-        <v>148728</v>
+        <v>180165</v>
       </c>
       <c r="C220" t="s">
         <v>1814</v>
@@ -23172,7 +23172,7 @@
         <v>2887</v>
       </c>
       <c r="B221" t="n">
-        <v>148729</v>
+        <v>180166</v>
       </c>
       <c r="C221" t="s">
         <v>1824</v>
@@ -23247,7 +23247,7 @@
         <v>2887</v>
       </c>
       <c r="B222" t="n">
-        <v>148730</v>
+        <v>180167</v>
       </c>
       <c r="C222" t="s">
         <v>1834</v>
@@ -23322,7 +23322,7 @@
         <v>2887</v>
       </c>
       <c r="B223" t="n">
-        <v>148731</v>
+        <v>180168</v>
       </c>
       <c r="C223" t="s">
         <v>1843</v>
@@ -23397,7 +23397,7 @@
         <v>2887</v>
       </c>
       <c r="B224" t="n">
-        <v>148732</v>
+        <v>180169</v>
       </c>
       <c r="C224" t="s">
         <v>1849</v>
@@ -23468,7 +23468,7 @@
         <v>2887</v>
       </c>
       <c r="B225" t="n">
-        <v>148733</v>
+        <v>180170</v>
       </c>
       <c r="C225" t="s">
         <v>1856</v>
@@ -23610,7 +23610,7 @@
         <v>2887</v>
       </c>
       <c r="B227" t="n">
-        <v>148734</v>
+        <v>180171</v>
       </c>
       <c r="C227" t="s">
         <v>1870</v>
@@ -23681,7 +23681,7 @@
         <v>2887</v>
       </c>
       <c r="B228" t="n">
-        <v>148735</v>
+        <v>180172</v>
       </c>
       <c r="C228" t="s">
         <v>1878</v>
@@ -23752,7 +23752,7 @@
         <v>2887</v>
       </c>
       <c r="B229" t="n">
-        <v>148736</v>
+        <v>180173</v>
       </c>
       <c r="C229" t="s">
         <v>1884</v>
@@ -23898,7 +23898,7 @@
         <v>2887</v>
       </c>
       <c r="B231" t="n">
-        <v>148737</v>
+        <v>180174</v>
       </c>
       <c r="C231" t="s">
         <v>1901</v>
@@ -23971,7 +23971,7 @@
         <v>2887</v>
       </c>
       <c r="B232" t="n">
-        <v>148738</v>
+        <v>180175</v>
       </c>
       <c r="C232" t="s">
         <v>1910</v>
@@ -24038,7 +24038,7 @@
         <v>2887</v>
       </c>
       <c r="B233" t="n">
-        <v>148739</v>
+        <v>180176</v>
       </c>
       <c r="C233" t="s">
         <v>1918</v>
@@ -24109,7 +24109,7 @@
         <v>2887</v>
       </c>
       <c r="B234" t="n">
-        <v>148740</v>
+        <v>180177</v>
       </c>
       <c r="C234" t="s">
         <v>1928</v>
@@ -24251,7 +24251,7 @@
         <v>2887</v>
       </c>
       <c r="B236" t="n">
-        <v>148741</v>
+        <v>180178</v>
       </c>
       <c r="C236" t="s">
         <v>1944</v>
@@ -24318,7 +24318,7 @@
         <v>2887</v>
       </c>
       <c r="B237" t="n">
-        <v>148742</v>
+        <v>180179</v>
       </c>
       <c r="C237" t="s">
         <v>1951</v>
@@ -24385,7 +24385,7 @@
         <v>2887</v>
       </c>
       <c r="B238" t="n">
-        <v>148743</v>
+        <v>180180</v>
       </c>
       <c r="C238" t="s">
         <v>1958</v>
@@ -24452,7 +24452,7 @@
         <v>2887</v>
       </c>
       <c r="B239" t="n">
-        <v>148744</v>
+        <v>180181</v>
       </c>
       <c r="C239" t="s">
         <v>1965</v>
@@ -24523,7 +24523,7 @@
         <v>2887</v>
       </c>
       <c r="B240" t="n">
-        <v>148745</v>
+        <v>180182</v>
       </c>
       <c r="C240" t="s">
         <v>1972</v>
@@ -24665,7 +24665,7 @@
         <v>2887</v>
       </c>
       <c r="B242" t="n">
-        <v>148746</v>
+        <v>180183</v>
       </c>
       <c r="C242" t="s">
         <v>1985</v>
@@ -24736,7 +24736,7 @@
         <v>2887</v>
       </c>
       <c r="B243" t="n">
-        <v>148747</v>
+        <v>180184</v>
       </c>
       <c r="C243" t="s">
         <v>1992</v>
@@ -24807,7 +24807,7 @@
         <v>2887</v>
       </c>
       <c r="B244" t="n">
-        <v>148748</v>
+        <v>180185</v>
       </c>
       <c r="C244" t="s">
         <v>2000</v>
@@ -24878,7 +24878,7 @@
         <v>2887</v>
       </c>
       <c r="B245" t="n">
-        <v>148749</v>
+        <v>180186</v>
       </c>
       <c r="C245" t="s">
         <v>2008</v>
@@ -24949,7 +24949,7 @@
         <v>2887</v>
       </c>
       <c r="B246" t="n">
-        <v>148750</v>
+        <v>180187</v>
       </c>
       <c r="C246" t="s">
         <v>2016</v>
@@ -25020,7 +25020,7 @@
         <v>2887</v>
       </c>
       <c r="B247" t="n">
-        <v>148751</v>
+        <v>180188</v>
       </c>
       <c r="C247" t="s">
         <v>2024</v>
@@ -25091,7 +25091,7 @@
         <v>2887</v>
       </c>
       <c r="B248" t="n">
-        <v>148752</v>
+        <v>180189</v>
       </c>
       <c r="C248" t="s">
         <v>2031</v>
@@ -25162,7 +25162,7 @@
         <v>2887</v>
       </c>
       <c r="B249" t="n">
-        <v>148753</v>
+        <v>180190</v>
       </c>
       <c r="C249" t="s">
         <v>2039</v>
@@ -25233,7 +25233,7 @@
         <v>2887</v>
       </c>
       <c r="B250" t="n">
-        <v>148754</v>
+        <v>180191</v>
       </c>
       <c r="C250" t="s">
         <v>2045</v>
@@ -25304,7 +25304,7 @@
         <v>2887</v>
       </c>
       <c r="B251" t="n">
-        <v>148755</v>
+        <v>180192</v>
       </c>
       <c r="C251" t="s">
         <v>2052</v>
@@ -25375,7 +25375,7 @@
         <v>2887</v>
       </c>
       <c r="B252" t="n">
-        <v>148756</v>
+        <v>180193</v>
       </c>
       <c r="C252" t="s">
         <v>2060</v>
@@ -25446,7 +25446,7 @@
         <v>2887</v>
       </c>
       <c r="B253" t="n">
-        <v>148757</v>
+        <v>180194</v>
       </c>
       <c r="C253" t="s">
         <v>2066</v>
@@ -25588,7 +25588,7 @@
         <v>2887</v>
       </c>
       <c r="B255" t="n">
-        <v>148758</v>
+        <v>180195</v>
       </c>
       <c r="C255" t="s">
         <v>2082</v>
@@ -25659,7 +25659,7 @@
         <v>2887</v>
       </c>
       <c r="B256" t="n">
-        <v>148759</v>
+        <v>180196</v>
       </c>
       <c r="C256" t="s">
         <v>2089</v>
@@ -25730,7 +25730,7 @@
         <v>2887</v>
       </c>
       <c r="B257" t="n">
-        <v>148760</v>
+        <v>180197</v>
       </c>
       <c r="C257" t="s">
         <v>2096</v>
@@ -25801,7 +25801,7 @@
         <v>2887</v>
       </c>
       <c r="B258" t="n">
-        <v>148761</v>
+        <v>180198</v>
       </c>
       <c r="C258" t="s">
         <v>2103</v>
@@ -25872,7 +25872,7 @@
         <v>2887</v>
       </c>
       <c r="B259" t="n">
-        <v>148762</v>
+        <v>180199</v>
       </c>
       <c r="C259" t="s">
         <v>2111</v>
@@ -26014,7 +26014,7 @@
         <v>2887</v>
       </c>
       <c r="B261" t="n">
-        <v>148763</v>
+        <v>180200</v>
       </c>
       <c r="C261" t="s">
         <v>2124</v>
@@ -26085,7 +26085,7 @@
         <v>2887</v>
       </c>
       <c r="B262" t="n">
-        <v>148764</v>
+        <v>180201</v>
       </c>
       <c r="C262" t="s">
         <v>2132</v>
@@ -26156,7 +26156,7 @@
         <v>2887</v>
       </c>
       <c r="B263" t="n">
-        <v>148765</v>
+        <v>180202</v>
       </c>
       <c r="C263" t="s">
         <v>2140</v>
@@ -26227,7 +26227,7 @@
         <v>2887</v>
       </c>
       <c r="B264" t="n">
-        <v>148766</v>
+        <v>180203</v>
       </c>
       <c r="C264" t="s">
         <v>2148</v>
@@ -26298,7 +26298,7 @@
         <v>2887</v>
       </c>
       <c r="B265" t="n">
-        <v>148767</v>
+        <v>180204</v>
       </c>
       <c r="C265" t="s">
         <v>2154</v>
@@ -26369,7 +26369,7 @@
         <v>2887</v>
       </c>
       <c r="B266" t="n">
-        <v>148768</v>
+        <v>180205</v>
       </c>
       <c r="C266" t="s">
         <v>2161</v>
@@ -26440,7 +26440,7 @@
         <v>2887</v>
       </c>
       <c r="B267" t="n">
-        <v>148769</v>
+        <v>180206</v>
       </c>
       <c r="C267" t="s">
         <v>2167</v>
@@ -26511,7 +26511,7 @@
         <v>2887</v>
       </c>
       <c r="B268" t="n">
-        <v>148770</v>
+        <v>180207</v>
       </c>
       <c r="C268" t="s">
         <v>2173</v>
@@ -26582,7 +26582,7 @@
         <v>2887</v>
       </c>
       <c r="B269" t="n">
-        <v>148771</v>
+        <v>180208</v>
       </c>
       <c r="C269" t="s">
         <v>2180</v>
@@ -26653,7 +26653,7 @@
         <v>2887</v>
       </c>
       <c r="B270" t="n">
-        <v>148772</v>
+        <v>180209</v>
       </c>
       <c r="C270" t="s">
         <v>2187</v>
@@ -26724,7 +26724,7 @@
         <v>2887</v>
       </c>
       <c r="B271" t="n">
-        <v>148773</v>
+        <v>180210</v>
       </c>
       <c r="C271" t="s">
         <v>2195</v>
@@ -26793,7 +26793,7 @@
         <v>2887</v>
       </c>
       <c r="B272" t="n">
-        <v>148774</v>
+        <v>180211</v>
       </c>
       <c r="C272" t="s">
         <v>2202</v>
@@ -26864,7 +26864,7 @@
         <v>2887</v>
       </c>
       <c r="B273" t="n">
-        <v>148775</v>
+        <v>180212</v>
       </c>
       <c r="C273" t="s">
         <v>2210</v>
@@ -26931,7 +26931,7 @@
         <v>2887</v>
       </c>
       <c r="B274" t="n">
-        <v>148776</v>
+        <v>180213</v>
       </c>
       <c r="C274" t="s">
         <v>2217</v>
@@ -27002,7 +27002,7 @@
         <v>2887</v>
       </c>
       <c r="B275" t="n">
-        <v>148777</v>
+        <v>180214</v>
       </c>
       <c r="C275" t="s">
         <v>2224</v>
@@ -27073,7 +27073,7 @@
         <v>2887</v>
       </c>
       <c r="B276" t="n">
-        <v>148778</v>
+        <v>180215</v>
       </c>
       <c r="C276" t="s">
         <v>2232</v>
@@ -27130,7 +27130,7 @@
         <v>2887</v>
       </c>
       <c r="B277" t="n">
-        <v>148779</v>
+        <v>180216</v>
       </c>
       <c r="C277" t="s">
         <v>2239</v>
@@ -27201,7 +27201,7 @@
         <v>2887</v>
       </c>
       <c r="B278" t="n">
-        <v>148780</v>
+        <v>180217</v>
       </c>
       <c r="C278" t="s">
         <v>2247</v>
@@ -27272,7 +27272,7 @@
         <v>2887</v>
       </c>
       <c r="B279" t="n">
-        <v>148781</v>
+        <v>180218</v>
       </c>
       <c r="C279" t="s">
         <v>2255</v>
@@ -27343,7 +27343,7 @@
         <v>2887</v>
       </c>
       <c r="B280" t="n">
-        <v>148782</v>
+        <v>180219</v>
       </c>
       <c r="C280" t="s">
         <v>2261</v>
@@ -27414,7 +27414,7 @@
         <v>2887</v>
       </c>
       <c r="B281" t="n">
-        <v>148783</v>
+        <v>180220</v>
       </c>
       <c r="C281" t="s">
         <v>2269</v>
@@ -27556,7 +27556,7 @@
         <v>2887</v>
       </c>
       <c r="B283" t="n">
-        <v>148784</v>
+        <v>180221</v>
       </c>
       <c r="C283" t="s">
         <v>2284</v>
@@ -27627,7 +27627,7 @@
         <v>2887</v>
       </c>
       <c r="B284" t="n">
-        <v>148785</v>
+        <v>180222</v>
       </c>
       <c r="C284" t="s">
         <v>2291</v>
@@ -27698,7 +27698,7 @@
         <v>2887</v>
       </c>
       <c r="B285" t="n">
-        <v>148786</v>
+        <v>180223</v>
       </c>
       <c r="C285" t="s">
         <v>2299</v>
@@ -27769,7 +27769,7 @@
         <v>2887</v>
       </c>
       <c r="B286" t="n">
-        <v>148787</v>
+        <v>180224</v>
       </c>
       <c r="C286" t="s">
         <v>2307</v>
@@ -27840,7 +27840,7 @@
         <v>2887</v>
       </c>
       <c r="B287" t="n">
-        <v>148788</v>
+        <v>180225</v>
       </c>
       <c r="C287" t="s">
         <v>2315</v>
@@ -27909,7 +27909,7 @@
         <v>2887</v>
       </c>
       <c r="B288" t="n">
-        <v>148789</v>
+        <v>180226</v>
       </c>
       <c r="C288" t="s">
         <v>2323</v>
@@ -27980,7 +27980,7 @@
         <v>2887</v>
       </c>
       <c r="B289" t="n">
-        <v>148790</v>
+        <v>180227</v>
       </c>
       <c r="C289" t="s">
         <v>2330</v>
@@ -28051,7 +28051,7 @@
         <v>2887</v>
       </c>
       <c r="B290" t="n">
-        <v>148791</v>
+        <v>180228</v>
       </c>
       <c r="C290" t="s">
         <v>2337</v>
@@ -28122,7 +28122,7 @@
         <v>2887</v>
       </c>
       <c r="B291" t="n">
-        <v>148792</v>
+        <v>180229</v>
       </c>
       <c r="C291" t="s">
         <v>2345</v>
@@ -28189,7 +28189,7 @@
         <v>2887</v>
       </c>
       <c r="B292" t="n">
-        <v>148793</v>
+        <v>180230</v>
       </c>
       <c r="C292" t="s">
         <v>2352</v>
@@ -28258,7 +28258,7 @@
         <v>2887</v>
       </c>
       <c r="B293" t="n">
-        <v>148794</v>
+        <v>180231</v>
       </c>
       <c r="C293" t="s">
         <v>2359</v>
@@ -28329,7 +28329,7 @@
         <v>2887</v>
       </c>
       <c r="B294" t="n">
-        <v>148795</v>
+        <v>180232</v>
       </c>
       <c r="C294" t="s">
         <v>2367</v>
@@ -28400,7 +28400,7 @@
         <v>2887</v>
       </c>
       <c r="B295" t="n">
-        <v>148796</v>
+        <v>180233</v>
       </c>
       <c r="C295" t="s">
         <v>2375</v>
@@ -28457,7 +28457,7 @@
         <v>2887</v>
       </c>
       <c r="B296" t="n">
-        <v>148797</v>
+        <v>180234</v>
       </c>
       <c r="C296" t="s">
         <v>2382</v>
@@ -28528,7 +28528,7 @@
         <v>2887</v>
       </c>
       <c r="B297" t="n">
-        <v>148798</v>
+        <v>180235</v>
       </c>
       <c r="C297" t="s">
         <v>2389</v>
@@ -28585,7 +28585,7 @@
         <v>2887</v>
       </c>
       <c r="B298" t="n">
-        <v>148799</v>
+        <v>180236</v>
       </c>
       <c r="C298" t="s">
         <v>2395</v>
@@ -28707,7 +28707,7 @@
         <v>2887</v>
       </c>
       <c r="B300" t="n">
-        <v>148800</v>
+        <v>180237</v>
       </c>
       <c r="C300" t="s">
         <v>2407</v>
